--- a/XIAOMI.xlsx
+++ b/XIAOMI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lidia\Desktop\Ciência dos Dados\Projeto1\PROJETO-1-CDADOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\layneps\Desktop\Insper\CDados\PROJETO 1\PROJETO-1-CDADOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE2E59A-073B-4B48-BE84-41715A8D9B15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0D4215-F433-4F00-9C7F-5B2943F9AF1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="564">
   <si>
     <t>Treinamento</t>
   </si>
@@ -2227,12 +2227,21 @@
     <t>rt @amt_online: saiba como usar o celular sem perder o sono
 #celular #dormir #sono #smartphone #brasil #apple #boanoite #samsung #amor #mo…</t>
   </si>
+  <si>
+    <t>CLASSIFICAÇÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R = 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I = 0 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2244,6 +2253,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2284,11 +2299,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2627,1521 +2643,1535 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A301"/>
+  <dimension ref="A1:D301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
-      <selection activeCell="B293" sqref="B293"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C91" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C92" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C93" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C94" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C95" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C96" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C97" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C98" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C99" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C100" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C101" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C103" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C104" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C105" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C106" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C107" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C108" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C110" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C111" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C112" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C113" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C114" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C115" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C116" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C117" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C118" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C119" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C120" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C121" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C122" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C123" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C124" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C125" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C126" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C127" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C128" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C129" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C130" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C132" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C133" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C134" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C135" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C136" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C137" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
+    <row r="138" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C138" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
+    <row r="139" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C139" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
+    <row r="140" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C140" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
+    <row r="141" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C141" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
+    <row r="142" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C142" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
+    <row r="143" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C143" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
+    <row r="144" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C144" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
+    <row r="145" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C145" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
+    <row r="146" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C146" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
+    <row r="147" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C147" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
+    <row r="148" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C148" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
+    <row r="149" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C149" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
+    <row r="150" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C150" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
+    <row r="151" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C151" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
+    <row r="152" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C152" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
+    <row r="153" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C153" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
+    <row r="154" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C154" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
+    <row r="155" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C155" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
+    <row r="156" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C156" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
+    <row r="157" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C157" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
+    <row r="158" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C158" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
+    <row r="159" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C159" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
+    <row r="160" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C160" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
+    <row r="161" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C161" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
+    <row r="162" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C162" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
+    <row r="163" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C163" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
+    <row r="164" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C164" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
+    <row r="165" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C165" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
+    <row r="166" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C166" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
+    <row r="167" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C167" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
+    <row r="168" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C168" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
+    <row r="169" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C169" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
+    <row r="170" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C170" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
+    <row r="171" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C171" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
+    <row r="172" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C172" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
+    <row r="173" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C173" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
+    <row r="174" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C174" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
+    <row r="175" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C175" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
+    <row r="176" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C176" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
+    <row r="177" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C177" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
+    <row r="178" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C178" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
+    <row r="179" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C179" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
+    <row r="180" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C180" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
+    <row r="181" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C181" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
+    <row r="182" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C182" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
+    <row r="183" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C183" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
+    <row r="184" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C184" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
+    <row r="185" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C185" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
+    <row r="186" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C186" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
+    <row r="187" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C187" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
+    <row r="188" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C188" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
+    <row r="189" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C189" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
+    <row r="190" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C190" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
+    <row r="191" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C191" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
+    <row r="192" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C192" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
+    <row r="193" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C193" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
+    <row r="194" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C194" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
+    <row r="195" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C195" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
+    <row r="196" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C196" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
+    <row r="197" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C197" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
+    <row r="198" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C198" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
+    <row r="199" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C199" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
+    <row r="200" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C200" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
+    <row r="201" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C201" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A202" t="s">
+    <row r="202" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C202" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A203" t="s">
+    <row r="203" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C203" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A204" t="s">
+    <row r="204" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C204" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A205" t="s">
+    <row r="205" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C205" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A206" t="s">
+    <row r="206" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C206" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A207" t="s">
+    <row r="207" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C207" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A208" t="s">
+    <row r="208" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C208" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A209" t="s">
+    <row r="209" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C209" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A210" t="s">
+    <row r="210" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C210" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A211" t="s">
+    <row r="211" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C211" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A212" t="s">
+    <row r="212" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C212" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A213" t="s">
+    <row r="213" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C213" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A214" t="s">
+    <row r="214" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C214" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A215" t="s">
+    <row r="215" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C215" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A216" t="s">
+    <row r="216" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C216" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A217" t="s">
+    <row r="217" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C217" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A218" t="s">
+    <row r="218" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C218" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A219" t="s">
+    <row r="219" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C219" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A220" t="s">
+    <row r="220" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C220" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A221" t="s">
+    <row r="221" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C221" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A222" t="s">
+    <row r="222" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C222" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A223" t="s">
+    <row r="223" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C223" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A224" t="s">
+    <row r="224" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C224" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A225" t="s">
+    <row r="225" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C225" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A226" t="s">
+    <row r="226" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C226" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A227" t="s">
+    <row r="227" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C227" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A228" t="s">
+    <row r="228" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C228" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A229" t="s">
+    <row r="229" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C229" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A230" t="s">
+    <row r="230" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C230" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A231" t="s">
+    <row r="231" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C231" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A232" t="s">
+    <row r="232" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C232" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A233" t="s">
+    <row r="233" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C233" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A234" t="s">
+    <row r="234" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C234" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A235" t="s">
+    <row r="235" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C235" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A236" t="s">
+    <row r="236" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C236" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A237" t="s">
+    <row r="237" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C237" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A238" t="s">
+    <row r="238" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C238" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A239" t="s">
+    <row r="239" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C239" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A240" t="s">
+    <row r="240" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C240" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A241" t="s">
+    <row r="241" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C241" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A242" t="s">
+    <row r="242" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C242" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A243" t="s">
+    <row r="243" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C243" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A244" t="s">
+    <row r="244" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C244" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A245" t="s">
+    <row r="245" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C245" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A246" t="s">
+    <row r="246" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C246" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A247" t="s">
+    <row r="247" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C247" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A248" t="s">
+    <row r="248" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C248" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A249" t="s">
+    <row r="249" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C249" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A250" t="s">
+    <row r="250" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C250" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A251" t="s">
+    <row r="251" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C251" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A252" t="s">
+    <row r="252" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C252" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A253" t="s">
+    <row r="253" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C253" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A254" t="s">
+    <row r="254" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C254" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A255" t="s">
+    <row r="255" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C255" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A256" t="s">
+    <row r="256" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C256" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A257" t="s">
+    <row r="257" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C257" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A258" t="s">
+    <row r="258" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C258" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A259" t="s">
+    <row r="259" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C259" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A260" t="s">
+    <row r="260" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C260" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A261" t="s">
+    <row r="261" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C261" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A262" t="s">
+    <row r="262" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C262" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A263" t="s">
+    <row r="263" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C263" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A264" t="s">
+    <row r="264" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C264" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A265" t="s">
+    <row r="265" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C265" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A266" t="s">
+    <row r="266" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C266" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A267" t="s">
+    <row r="267" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C267" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A268" t="s">
+    <row r="268" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C268" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A269" t="s">
+    <row r="269" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C269" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A270" t="s">
+    <row r="270" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C270" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A271" t="s">
+    <row r="271" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C271" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A272" t="s">
+    <row r="272" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C272" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A273" t="s">
+    <row r="273" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C273" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A274" t="s">
+    <row r="274" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C274" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A275" t="s">
+    <row r="275" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C275" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A276" t="s">
+    <row r="276" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C276" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A277" t="s">
+    <row r="277" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C277" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A278" t="s">
+    <row r="278" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C278" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A279" t="s">
+    <row r="279" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C279" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A280" t="s">
+    <row r="280" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C280" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A281" t="s">
+    <row r="281" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C281" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A282" t="s">
+    <row r="282" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C282" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A283" t="s">
+    <row r="283" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C283" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A284" t="s">
+    <row r="284" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C284" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A285" t="s">
+    <row r="285" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C285" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A286" t="s">
+    <row r="286" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C286" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A287" t="s">
+    <row r="287" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C287" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A288" t="s">
+    <row r="288" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C288" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A289" t="s">
+    <row r="289" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C289" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A290" t="s">
+    <row r="290" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C290" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A291" t="s">
+    <row r="291" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C291" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A292" t="s">
+    <row r="292" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C292" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A293" t="s">
+    <row r="293" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C293" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A294" t="s">
+    <row r="294" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C294" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A295" t="s">
+    <row r="295" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C295" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A296" t="s">
+    <row r="296" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C296" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A297" t="s">
+    <row r="297" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C297" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A298" t="s">
+    <row r="298" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C298" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A299" t="s">
+    <row r="299" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C299" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A300" t="s">
+    <row r="300" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C300" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A301" t="s">
+    <row r="301" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C301" t="s">
         <v>300</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4149,7 +4179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A260"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A242" workbookViewId="0">
       <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>

--- a/XIAOMI.xlsx
+++ b/XIAOMI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\layneps\Desktop\Insper\CDados\PROJETO 1\PROJETO-1-CDADOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0D4215-F433-4F00-9C7F-5B2943F9AF1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20482FB7-B2F7-4207-A495-23575D9A9BDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="564">
   <si>
     <t>Treinamento</t>
   </si>
@@ -2299,12 +2299,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2645,13 +2646,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B285" workbookViewId="0">
+      <selection activeCell="B302" sqref="B302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -2669,1501 +2671,2401 @@
       <c r="A2" t="s">
         <v>563</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>0</v>
+      </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>1</v>
+      </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>0</v>
+      </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>0</v>
+      </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>0</v>
+      </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>0</v>
+      </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>0</v>
+      </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>1</v>
+      </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>0</v>
+      </c>
       <c r="C16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>1</v>
+      </c>
       <c r="C17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>1</v>
+      </c>
       <c r="C18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>1</v>
+      </c>
       <c r="C19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>0</v>
+      </c>
       <c r="C20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>1</v>
+      </c>
       <c r="C21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>0</v>
+      </c>
       <c r="C22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>0</v>
+      </c>
       <c r="C23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>0</v>
+      </c>
       <c r="C24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>0</v>
+      </c>
       <c r="C25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>1</v>
+      </c>
       <c r="C26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>1</v>
+      </c>
       <c r="C27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>0</v>
+      </c>
       <c r="C28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>1</v>
+      </c>
       <c r="C29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>0</v>
+      </c>
       <c r="C30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>1</v>
+      </c>
       <c r="C31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>0</v>
+      </c>
       <c r="C32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>0</v>
+      </c>
       <c r="C33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>0</v>
+      </c>
       <c r="C34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>0</v>
+      </c>
       <c r="C35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>0</v>
+      </c>
       <c r="C36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>0</v>
+      </c>
       <c r="C37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>0</v>
+      </c>
       <c r="C38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>0</v>
+      </c>
       <c r="C39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>0</v>
+      </c>
       <c r="C40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>1</v>
+      </c>
       <c r="C41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>0</v>
+      </c>
       <c r="C42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>0</v>
+      </c>
       <c r="C43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B44">
+        <v>0</v>
+      </c>
       <c r="C44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <v>0</v>
+      </c>
       <c r="C45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <v>1</v>
+      </c>
       <c r="C46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <v>0</v>
+      </c>
       <c r="C47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>0</v>
+      </c>
       <c r="C48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B49">
+        <v>1</v>
+      </c>
       <c r="C49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B50">
+        <v>1</v>
+      </c>
       <c r="C50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B51">
+        <v>0</v>
+      </c>
       <c r="C51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B52">
+        <v>0</v>
+      </c>
       <c r="C52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B53">
+        <v>1</v>
+      </c>
       <c r="C53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B54">
+        <v>0</v>
+      </c>
       <c r="C54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B55">
+        <v>0</v>
+      </c>
       <c r="C55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B56">
+        <v>0</v>
+      </c>
       <c r="C56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B57">
+        <v>1</v>
+      </c>
       <c r="C57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B58">
+        <v>1</v>
+      </c>
       <c r="C58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B59">
+        <v>0</v>
+      </c>
       <c r="C59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B60">
+        <v>1</v>
+      </c>
       <c r="C60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B61">
+        <v>1</v>
+      </c>
       <c r="C61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B62">
+        <v>1</v>
+      </c>
       <c r="C62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B63">
+        <v>0</v>
+      </c>
       <c r="C63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B64">
+        <v>1</v>
+      </c>
       <c r="C64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B65">
+        <v>0</v>
+      </c>
       <c r="C65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B66">
+        <v>0</v>
+      </c>
       <c r="C66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B67">
+        <v>1</v>
+      </c>
       <c r="C67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B68">
+        <v>0</v>
+      </c>
       <c r="C68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B69">
+        <v>1</v>
+      </c>
       <c r="C69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B70">
+        <v>1</v>
+      </c>
       <c r="C70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B71">
+        <v>0</v>
+      </c>
       <c r="C71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B72">
+        <v>0</v>
+      </c>
       <c r="C72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B73">
+        <v>0</v>
+      </c>
       <c r="C73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B74">
+        <v>0</v>
+      </c>
       <c r="C74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B75">
+        <v>0</v>
+      </c>
       <c r="C75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B76">
+        <v>0</v>
+      </c>
       <c r="C76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B77">
+        <v>0</v>
+      </c>
       <c r="C77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B78">
+        <v>0</v>
+      </c>
       <c r="C78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B79">
+        <v>0</v>
+      </c>
       <c r="C79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B80">
+        <v>0</v>
+      </c>
       <c r="C80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B81">
+        <v>1</v>
+      </c>
       <c r="C81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B82">
+        <v>1</v>
+      </c>
       <c r="C82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B83">
+        <v>0</v>
+      </c>
       <c r="C83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B84">
+        <v>0</v>
+      </c>
       <c r="C84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B85">
+        <v>0</v>
+      </c>
       <c r="C85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B86">
+        <v>0</v>
+      </c>
       <c r="C86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B87">
+        <v>1</v>
+      </c>
       <c r="C87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B88">
+        <v>0</v>
+      </c>
       <c r="C88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B89">
+        <v>1</v>
+      </c>
       <c r="C89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B90">
+        <v>0</v>
+      </c>
       <c r="C90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B91">
+        <v>0</v>
+      </c>
       <c r="C91" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B92">
+        <v>1</v>
+      </c>
       <c r="C92" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B93">
+        <v>1</v>
+      </c>
       <c r="C93" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B94">
+        <v>1</v>
+      </c>
       <c r="C94" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B95">
+        <v>0</v>
+      </c>
       <c r="C95" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B96">
+        <v>0</v>
+      </c>
       <c r="C96" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B97">
+        <v>1</v>
+      </c>
       <c r="C97" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B98">
+        <v>1</v>
+      </c>
       <c r="C98" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B99">
+        <v>0</v>
+      </c>
       <c r="C99" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B100">
+        <v>0</v>
+      </c>
       <c r="C100" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B101">
+        <v>1</v>
+      </c>
       <c r="C101" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B102">
+        <v>0</v>
+      </c>
       <c r="C102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B103">
+        <v>0</v>
+      </c>
       <c r="C103" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B104">
+        <v>0</v>
+      </c>
       <c r="C104" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B105">
+        <v>0</v>
+      </c>
       <c r="C105" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B106">
+        <v>1</v>
+      </c>
       <c r="C106" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B107">
+        <v>1</v>
+      </c>
       <c r="C107" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B108">
+        <v>0</v>
+      </c>
       <c r="C108" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B109">
+        <v>1</v>
+      </c>
       <c r="C109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B110">
+        <v>0</v>
+      </c>
       <c r="C110" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B111">
+        <v>0</v>
+      </c>
       <c r="C111" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B112">
+        <v>0</v>
+      </c>
       <c r="C112" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B113">
+        <v>0</v>
+      </c>
       <c r="C113" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B114">
+        <v>0</v>
+      </c>
       <c r="C114" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B115">
+        <v>1</v>
+      </c>
       <c r="C115" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B116">
+        <v>0</v>
+      </c>
       <c r="C116" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B117">
+        <v>0</v>
+      </c>
       <c r="C117" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B118">
+        <v>0</v>
+      </c>
       <c r="C118" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B119">
+        <v>1</v>
+      </c>
       <c r="C119" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B120">
+        <v>1</v>
+      </c>
       <c r="C120" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B121">
+        <v>0</v>
+      </c>
       <c r="C121" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B122">
+        <v>1</v>
+      </c>
       <c r="C122" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B123">
+        <v>0</v>
+      </c>
       <c r="C123" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B124">
+        <v>0</v>
+      </c>
       <c r="C124" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B125">
+        <v>0</v>
+      </c>
       <c r="C125" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B126">
+        <v>1</v>
+      </c>
       <c r="C126" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B127">
+        <v>0</v>
+      </c>
       <c r="C127" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B128">
+        <v>1</v>
+      </c>
       <c r="C128" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B129">
+        <v>1</v>
+      </c>
       <c r="C129" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B130">
+        <v>0</v>
+      </c>
       <c r="C130" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B131">
+        <v>1</v>
+      </c>
       <c r="C131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B132">
+        <v>0</v>
+      </c>
       <c r="C132" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B133">
+        <v>1</v>
+      </c>
       <c r="C133" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B134">
+        <v>1</v>
+      </c>
       <c r="C134" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B135">
+        <v>0</v>
+      </c>
       <c r="C135" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B136">
+        <v>1</v>
+      </c>
       <c r="C136" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B137">
+        <v>0</v>
+      </c>
       <c r="C137" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B138">
+        <v>1</v>
+      </c>
       <c r="C138" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B139">
+        <v>0</v>
+      </c>
       <c r="C139" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B140">
+        <v>1</v>
+      </c>
       <c r="C140" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B141">
+        <v>0</v>
+      </c>
       <c r="C141" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B142">
+        <v>0</v>
+      </c>
       <c r="C142" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B143">
+        <v>1</v>
+      </c>
       <c r="C143" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B144">
+        <v>1</v>
+      </c>
       <c r="C144" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B145">
+        <v>0</v>
+      </c>
       <c r="C145" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B146">
+        <v>1</v>
+      </c>
       <c r="C146" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B147">
+        <v>0</v>
+      </c>
       <c r="C147" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B148">
+        <v>0</v>
+      </c>
       <c r="C148" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B149">
+        <v>1</v>
+      </c>
       <c r="C149" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B150">
+        <v>1</v>
+      </c>
       <c r="C150" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B151">
+        <v>0</v>
+      </c>
       <c r="C151" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B152">
+        <v>0</v>
+      </c>
       <c r="C152" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B153">
+        <v>1</v>
+      </c>
       <c r="C153" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B154">
+        <v>1</v>
+      </c>
       <c r="C154" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B155">
+        <v>0</v>
+      </c>
       <c r="C155" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B156">
+        <v>1</v>
+      </c>
       <c r="C156" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B157">
+        <v>0</v>
+      </c>
       <c r="C157" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B158">
+        <v>1</v>
+      </c>
       <c r="C158" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B159">
+        <v>0</v>
+      </c>
       <c r="C159" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B160">
+        <v>1</v>
+      </c>
       <c r="C160" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B161">
+        <v>0</v>
+      </c>
       <c r="C161" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B162">
+        <v>0</v>
+      </c>
       <c r="C162" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B163">
+        <v>0</v>
+      </c>
       <c r="C163" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B164">
+        <v>0</v>
+      </c>
       <c r="C164" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B165">
+        <v>0</v>
+      </c>
       <c r="C165" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B166">
+        <v>0</v>
+      </c>
       <c r="C166" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B167">
+        <v>0</v>
+      </c>
       <c r="C167" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B168">
+        <v>0</v>
+      </c>
       <c r="C168" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B169">
+        <v>0</v>
+      </c>
       <c r="C169" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B170">
+        <v>0</v>
+      </c>
       <c r="C170" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B171">
+        <v>0</v>
+      </c>
       <c r="C171" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B172">
+        <v>0</v>
+      </c>
       <c r="C172" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B173">
+        <v>1</v>
+      </c>
       <c r="C173" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B174">
+        <v>1</v>
+      </c>
       <c r="C174" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B175">
+        <v>0</v>
+      </c>
       <c r="C175" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B176">
+        <v>0</v>
+      </c>
       <c r="C176" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B177">
+        <v>0</v>
+      </c>
       <c r="C177" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B178">
+        <v>1</v>
+      </c>
       <c r="C178" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B179">
+        <v>0</v>
+      </c>
       <c r="C179" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B180">
+        <v>1</v>
+      </c>
       <c r="C180" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B181">
+        <v>1</v>
+      </c>
       <c r="C181" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B182">
+        <v>0</v>
+      </c>
       <c r="C182" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B183">
+        <v>1</v>
+      </c>
       <c r="C183" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B184">
+        <v>0</v>
+      </c>
       <c r="C184" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B185">
+        <v>0</v>
+      </c>
       <c r="C185" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B186">
+        <v>1</v>
+      </c>
       <c r="C186" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B187">
+        <v>0</v>
+      </c>
       <c r="C187" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B188">
+        <v>0</v>
+      </c>
       <c r="C188" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B189">
+        <v>0</v>
+      </c>
       <c r="C189" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B190">
+        <v>0</v>
+      </c>
       <c r="C190" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B191">
+        <v>0</v>
+      </c>
       <c r="C191" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B192">
+        <v>0</v>
+      </c>
       <c r="C192" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B193">
+        <v>0</v>
+      </c>
       <c r="C193" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B194">
+        <v>0</v>
+      </c>
       <c r="C194" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B195">
+        <v>0</v>
+      </c>
       <c r="C195" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B196">
+        <v>0</v>
+      </c>
       <c r="C196" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B197">
+        <v>0</v>
+      </c>
       <c r="C197" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B198">
+        <v>0</v>
+      </c>
       <c r="C198" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B199">
+        <v>0</v>
+      </c>
       <c r="C199" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B200">
+        <v>1</v>
+      </c>
       <c r="C200" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B201">
+        <v>0</v>
+      </c>
       <c r="C201" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B202">
+        <v>0</v>
+      </c>
       <c r="C202" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B203">
+        <v>0</v>
+      </c>
       <c r="C203" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B204">
+        <v>0</v>
+      </c>
       <c r="C204" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B205">
+        <v>0</v>
+      </c>
       <c r="C205" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B206">
+        <v>1</v>
+      </c>
       <c r="C206" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B207">
+        <v>0</v>
+      </c>
       <c r="C207" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B208">
+        <v>0</v>
+      </c>
       <c r="C208" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B209">
+        <v>1</v>
+      </c>
       <c r="C209" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B210">
+        <v>0</v>
+      </c>
       <c r="C210" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B211">
+        <v>0</v>
+      </c>
       <c r="C211" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B212">
+        <v>1</v>
+      </c>
       <c r="C212" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B213">
+        <v>1</v>
+      </c>
       <c r="C213" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B214">
+        <v>1</v>
+      </c>
       <c r="C214" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B215">
+        <v>0</v>
+      </c>
       <c r="C215" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B216">
+        <v>0</v>
+      </c>
       <c r="C216" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B217">
+        <v>0</v>
+      </c>
       <c r="C217" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B218">
+        <v>0</v>
+      </c>
       <c r="C218" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B219">
+        <v>1</v>
+      </c>
       <c r="C219" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B220">
+        <v>0</v>
+      </c>
       <c r="C220" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B221">
+        <v>1</v>
+      </c>
       <c r="C221" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B222">
+        <v>0</v>
+      </c>
       <c r="C222" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B223">
+        <v>1</v>
+      </c>
       <c r="C223" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B224">
+        <v>1</v>
+      </c>
       <c r="C224" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B225">
+        <v>0</v>
+      </c>
       <c r="C225" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B226">
+        <v>0</v>
+      </c>
       <c r="C226" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B227">
+        <v>0</v>
+      </c>
       <c r="C227" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B228">
+        <v>0</v>
+      </c>
       <c r="C228" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B229">
+        <v>1</v>
+      </c>
       <c r="C229" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B230">
+        <v>0</v>
+      </c>
       <c r="C230" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B231">
+        <v>0</v>
+      </c>
       <c r="C231" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B232">
+        <v>0</v>
+      </c>
       <c r="C232" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B233">
+        <v>0</v>
+      </c>
       <c r="C233" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B234">
+        <v>1</v>
+      </c>
       <c r="C234" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B235">
+        <v>0</v>
+      </c>
       <c r="C235" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B236">
+        <v>0</v>
+      </c>
       <c r="C236" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B237">
+        <v>1</v>
+      </c>
       <c r="C237" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B238">
+        <v>0</v>
+      </c>
       <c r="C238" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B239">
+        <v>1</v>
+      </c>
       <c r="C239" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B240">
+        <v>0</v>
+      </c>
       <c r="C240" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B241">
+        <v>0</v>
+      </c>
       <c r="C241" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B242">
+        <v>0</v>
+      </c>
       <c r="C242" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B243">
+        <v>0</v>
+      </c>
       <c r="C243" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B244">
+        <v>0</v>
+      </c>
       <c r="C244" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B245">
+        <v>0</v>
+      </c>
       <c r="C245" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B246">
+        <v>1</v>
+      </c>
       <c r="C246" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B247">
+        <v>1</v>
+      </c>
       <c r="C247" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B248">
+        <v>0</v>
+      </c>
       <c r="C248" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B249">
+        <v>1</v>
+      </c>
       <c r="C249" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B250">
+        <v>0</v>
+      </c>
       <c r="C250" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B251">
+        <v>0</v>
+      </c>
       <c r="C251" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B252">
+        <v>0</v>
+      </c>
       <c r="C252" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B253">
+        <v>0</v>
+      </c>
       <c r="C253" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B254">
+        <v>0</v>
+      </c>
       <c r="C254" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B255">
+        <v>0</v>
+      </c>
       <c r="C255" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B256">
+        <v>0</v>
+      </c>
       <c r="C256" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B257">
+        <v>0</v>
+      </c>
       <c r="C257" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B258">
+        <v>0</v>
+      </c>
       <c r="C258" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B259">
+        <v>0</v>
+      </c>
       <c r="C259" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B260">
+        <v>0</v>
+      </c>
       <c r="C260" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B261">
+        <v>0</v>
+      </c>
       <c r="C261" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B262">
+        <v>0</v>
+      </c>
       <c r="C262" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B263">
+        <v>0</v>
+      </c>
       <c r="C263" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B264">
+        <v>0</v>
+      </c>
       <c r="C264" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B265">
+        <v>0</v>
+      </c>
       <c r="C265" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B266">
+        <v>0</v>
+      </c>
       <c r="C266" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B267">
+        <v>0</v>
+      </c>
       <c r="C267" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B268">
+        <v>0</v>
+      </c>
       <c r="C268" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B269">
+        <v>0</v>
+      </c>
       <c r="C269" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B270">
+        <v>1</v>
+      </c>
       <c r="C270" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B271">
+        <v>0</v>
+      </c>
       <c r="C271" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B272">
+        <v>0</v>
+      </c>
       <c r="C272" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B273">
+        <v>1</v>
+      </c>
       <c r="C273" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B274">
+        <v>0</v>
+      </c>
       <c r="C274" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B275">
+        <v>0</v>
+      </c>
       <c r="C275" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B276">
+        <v>0</v>
+      </c>
       <c r="C276" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B277">
+        <v>0</v>
+      </c>
       <c r="C277" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B278">
+        <v>0</v>
+      </c>
       <c r="C278" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B279">
+        <v>0</v>
+      </c>
       <c r="C279" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B280">
+        <v>0</v>
+      </c>
       <c r="C280" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B281">
+        <v>0</v>
+      </c>
       <c r="C281" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B282">
+        <v>0</v>
+      </c>
       <c r="C282" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="283" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B283">
+        <v>0</v>
+      </c>
       <c r="C283" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="284" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B284">
+        <v>1</v>
+      </c>
       <c r="C284" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="285" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B285">
+        <v>1</v>
+      </c>
       <c r="C285" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="286" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B286">
+        <v>1</v>
+      </c>
       <c r="C286" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="287" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B287">
+        <v>1</v>
+      </c>
       <c r="C287" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="288" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B288">
+        <v>0</v>
+      </c>
       <c r="C288" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="289" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B289">
+        <v>0</v>
+      </c>
       <c r="C289" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="290" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B290">
+        <v>1</v>
+      </c>
       <c r="C290" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="291" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B291">
+        <v>0</v>
+      </c>
       <c r="C291" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="292" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B292">
+        <v>1</v>
+      </c>
       <c r="C292" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="293" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B293">
+        <v>1</v>
+      </c>
       <c r="C293" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="294" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B294">
+        <v>1</v>
+      </c>
       <c r="C294" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="295" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B295">
+        <v>1</v>
+      </c>
       <c r="C295" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="296" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B296">
+        <v>0</v>
+      </c>
       <c r="C296" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="297" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B297">
+        <v>1</v>
+      </c>
       <c r="C297" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="298" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B298">
+        <v>0</v>
+      </c>
       <c r="C298" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="299" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B299">
+        <v>0</v>
+      </c>
       <c r="C299" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="300" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B300">
+        <v>0</v>
+      </c>
       <c r="C300" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="301" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B301">
+        <v>0</v>
+      </c>
       <c r="C301" t="s">
         <v>300</v>
       </c>
@@ -4177,1315 +5079,2099 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A260"/>
+  <dimension ref="B1:C260"/>
   <sheetViews>
-    <sheetView topLeftCell="A242" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView topLeftCell="B247" workbookViewId="0">
+      <selection activeCell="B261" sqref="B261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B1" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
+    <row r="171" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
+    <row r="172" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
+    <row r="173" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="C173" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
+    <row r="174" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B175">
+        <v>1</v>
+      </c>
+      <c r="C175" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
+    <row r="176" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
+    <row r="178" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
+    <row r="179" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
+    <row r="180" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
+    <row r="181" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
+    <row r="182" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
+    <row r="183" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
+    <row r="184" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
+    <row r="185" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
+    <row r="186" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
+    <row r="187" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B187">
+        <v>1</v>
+      </c>
+      <c r="C187" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
+    <row r="188" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
+    <row r="189" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
+    <row r="190" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
+    <row r="191" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="C191" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
+    <row r="192" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B192">
+        <v>1</v>
+      </c>
+      <c r="C192" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
+    <row r="193" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
+    <row r="194" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
+    <row r="195" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
+    <row r="196" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="C196" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
+    <row r="197" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
+    <row r="198" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B198">
+        <v>0</v>
+      </c>
+      <c r="C198" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
+    <row r="199" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
+    <row r="200" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
+    <row r="201" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A202" t="s">
+    <row r="202" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A203" t="s">
+    <row r="203" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A204" t="s">
+    <row r="204" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A205" t="s">
+    <row r="205" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A206" t="s">
+    <row r="206" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A207" t="s">
+    <row r="207" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A208" t="s">
+    <row r="208" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="C208" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A209" t="s">
+    <row r="209" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A210" t="s">
+    <row r="210" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B210">
+        <v>1</v>
+      </c>
+      <c r="C210" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A211" t="s">
+    <row r="211" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B211">
+        <v>1</v>
+      </c>
+      <c r="C211" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A212" t="s">
+    <row r="212" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A213" t="s">
+    <row r="213" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A214" t="s">
+    <row r="214" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A215" t="s">
+    <row r="215" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="C215" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A216" t="s">
+    <row r="216" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="C216" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A217" t="s">
+    <row r="217" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B217">
+        <v>0</v>
+      </c>
+      <c r="C217" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A218" t="s">
+    <row r="218" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A219" t="s">
+    <row r="219" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B219">
+        <v>1</v>
+      </c>
+      <c r="C219" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A220" t="s">
+    <row r="220" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A221" t="s">
+    <row r="221" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A222" t="s">
+    <row r="222" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A223" t="s">
+    <row r="223" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="C223" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A224" t="s">
+    <row r="224" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A225" t="s">
+    <row r="225" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A226" t="s">
+    <row r="226" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A227" t="s">
+    <row r="227" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A228" t="s">
+    <row r="228" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A229" t="s">
+    <row r="229" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A230" t="s">
+    <row r="230" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A231" t="s">
+    <row r="231" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A232" t="s">
+    <row r="232" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A233" t="s">
+    <row r="233" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A234" t="s">
+    <row r="234" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="C234" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A235" t="s">
+    <row r="235" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B235">
+        <v>1</v>
+      </c>
+      <c r="C235" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A236" t="s">
+    <row r="236" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A237" t="s">
+    <row r="237" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B237">
+        <v>0</v>
+      </c>
+      <c r="C237" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A238" t="s">
+    <row r="238" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B238">
+        <v>1</v>
+      </c>
+      <c r="C238" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A239" t="s">
+    <row r="239" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="C239" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A240" t="s">
+    <row r="240" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B240">
+        <v>0</v>
+      </c>
+      <c r="C240" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A241" t="s">
+    <row r="241" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B241">
+        <v>1</v>
+      </c>
+      <c r="C241" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A242" t="s">
+    <row r="242" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B242">
+        <v>1</v>
+      </c>
+      <c r="C242" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A243" t="s">
+    <row r="243" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B243">
+        <v>0</v>
+      </c>
+      <c r="C243" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A244" t="s">
+    <row r="244" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B244">
+        <v>0</v>
+      </c>
+      <c r="C244" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A245" t="s">
+    <row r="245" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B245">
+        <v>0</v>
+      </c>
+      <c r="C245" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A246" t="s">
+    <row r="246" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B246">
+        <v>1</v>
+      </c>
+      <c r="C246" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A247" t="s">
+    <row r="247" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B247">
+        <v>0</v>
+      </c>
+      <c r="C247" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A248" t="s">
+    <row r="248" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B248">
+        <v>1</v>
+      </c>
+      <c r="C248" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A249" t="s">
+    <row r="249" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B249">
+        <v>0</v>
+      </c>
+      <c r="C249" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A250" t="s">
+    <row r="250" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B250">
+        <v>0</v>
+      </c>
+      <c r="C250" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A251" t="s">
+    <row r="251" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B251">
+        <v>0</v>
+      </c>
+      <c r="C251" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A252" t="s">
+    <row r="252" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B252">
+        <v>0</v>
+      </c>
+      <c r="C252" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A253" t="s">
+    <row r="253" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B253">
+        <v>0</v>
+      </c>
+      <c r="C253" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A254" t="s">
+    <row r="254" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="C254" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A255" t="s">
+    <row r="255" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B255">
+        <v>1</v>
+      </c>
+      <c r="C255" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A256" t="s">
+    <row r="256" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B256">
+        <v>0</v>
+      </c>
+      <c r="C256" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A257" t="s">
+    <row r="257" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A258" t="s">
+    <row r="258" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B258">
+        <v>0</v>
+      </c>
+      <c r="C258" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A259" t="s">
+    <row r="259" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B259">
+        <v>0</v>
+      </c>
+      <c r="C259" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A260" t="s">
+    <row r="260" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B260">
+        <v>0</v>
+      </c>
+      <c r="C260" t="s">
         <v>560</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/XIAOMI.xlsx
+++ b/XIAOMI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\layneps\Desktop\Insper\CDados\PROJETO 1\PROJETO-1-CDADOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20482FB7-B2F7-4207-A495-23575D9A9BDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5138402-C05B-4E8E-8784-D2CF51CF8190}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="564">
-  <si>
-    <t>Treinamento</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="562">
   <si>
     <t>quem aqui tb pronuncia xiaomi xaiomi</t>
   </si>
@@ -2231,10 +2228,7 @@
     <t>CLASSIFICAÇÃO</t>
   </si>
   <si>
-    <t xml:space="preserve">R = 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I = 0 </t>
+    <t>TREINAMENTO</t>
   </si>
 </sst>
 </file>
@@ -2299,13 +2293,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2646,2428 +2644,2421 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B285" workbookViewId="0">
-      <selection activeCell="B302" sqref="B302"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="255.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>562</v>
+      <c r="A1" s="5" t="s">
+        <v>561</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>563</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>0</v>
       </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>0</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>0</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>0</v>
       </c>
-      <c r="C25" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>0</v>
       </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>1</v>
       </c>
-      <c r="C29" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>0</v>
       </c>
-      <c r="C30" t="s">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>1</v>
       </c>
-      <c r="C31" t="s">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>0</v>
       </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>0</v>
       </c>
-      <c r="C33" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>0</v>
       </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>0</v>
       </c>
-      <c r="C35" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>0</v>
       </c>
-      <c r="C36" t="s">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>0</v>
       </c>
-      <c r="C37" t="s">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>0</v>
       </c>
-      <c r="C38" t="s">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>0</v>
       </c>
-      <c r="C39" t="s">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>0</v>
       </c>
-      <c r="C40" t="s">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>1</v>
       </c>
-      <c r="C41" t="s">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>0</v>
       </c>
-      <c r="C42" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>0</v>
       </c>
-      <c r="C43" t="s">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>0</v>
       </c>
-      <c r="C44" t="s">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>0</v>
       </c>
-      <c r="C45" t="s">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>1</v>
       </c>
-      <c r="C46" t="s">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>0</v>
       </c>
-      <c r="C47" t="s">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>0</v>
       </c>
-      <c r="C48" t="s">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>1</v>
       </c>
-      <c r="C49" t="s">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>1</v>
       </c>
-      <c r="C50" t="s">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>0</v>
       </c>
-      <c r="C51" t="s">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>0</v>
       </c>
-      <c r="C52" t="s">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>1</v>
       </c>
-      <c r="C53" t="s">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>0</v>
       </c>
-      <c r="C54" t="s">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>0</v>
       </c>
-      <c r="C55" t="s">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>0</v>
       </c>
-      <c r="C56" t="s">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>1</v>
       </c>
-      <c r="C57" t="s">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>1</v>
       </c>
-      <c r="C58" t="s">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>0</v>
       </c>
-      <c r="C59" t="s">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>1</v>
       </c>
-      <c r="C60" t="s">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>1</v>
       </c>
-      <c r="C61" t="s">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>1</v>
       </c>
-      <c r="C62" t="s">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>0</v>
       </c>
-      <c r="C63" t="s">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>1</v>
       </c>
-      <c r="C64" t="s">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>0</v>
       </c>
-      <c r="C65" t="s">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>0</v>
       </c>
-      <c r="C66" t="s">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>1</v>
       </c>
-      <c r="C67" t="s">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>0</v>
       </c>
-      <c r="C68" t="s">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>1</v>
       </c>
-      <c r="C69" t="s">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>1</v>
       </c>
-      <c r="C70" t="s">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B71">
         <v>0</v>
       </c>
-      <c r="C71" t="s">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B72">
         <v>0</v>
       </c>
-      <c r="C72" t="s">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B73">
         <v>0</v>
       </c>
-      <c r="C73" t="s">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B74">
         <v>0</v>
       </c>
-      <c r="C74" t="s">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B75">
         <v>0</v>
       </c>
-      <c r="C75" t="s">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B76">
         <v>0</v>
       </c>
-      <c r="C76" t="s">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B77">
         <v>0</v>
       </c>
-      <c r="C77" t="s">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B78">
         <v>0</v>
       </c>
-      <c r="C78" t="s">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B79">
         <v>0</v>
       </c>
-      <c r="C79" t="s">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B80">
         <v>0</v>
       </c>
-      <c r="C80" t="s">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B81">
         <v>1</v>
       </c>
-      <c r="C81" t="s">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B82">
         <v>1</v>
       </c>
-      <c r="C82" t="s">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B83">
         <v>0</v>
       </c>
-      <c r="C83" t="s">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B84">
         <v>0</v>
       </c>
-      <c r="C84" t="s">
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B85">
         <v>0</v>
       </c>
-      <c r="C85" t="s">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B86">
         <v>0</v>
       </c>
-      <c r="C86" t="s">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B87">
         <v>1</v>
       </c>
-      <c r="C87" t="s">
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B88">
         <v>0</v>
       </c>
-      <c r="C88" t="s">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B89">
         <v>1</v>
       </c>
-      <c r="C89" t="s">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B90">
         <v>0</v>
       </c>
-      <c r="C90" t="s">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B91">
         <v>0</v>
       </c>
-      <c r="C91" t="s">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B92">
         <v>1</v>
       </c>
-      <c r="C92" t="s">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B93">
         <v>1</v>
       </c>
-      <c r="C93" t="s">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B94">
         <v>1</v>
       </c>
-      <c r="C94" t="s">
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B95">
         <v>0</v>
       </c>
-      <c r="C95" t="s">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B96">
         <v>0</v>
       </c>
-      <c r="C96" t="s">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B97">
         <v>1</v>
       </c>
-      <c r="C97" t="s">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B98">
         <v>1</v>
       </c>
-      <c r="C98" t="s">
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B99">
         <v>0</v>
       </c>
-      <c r="C99" t="s">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B100">
         <v>0</v>
       </c>
-      <c r="C100" t="s">
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B101">
         <v>1</v>
       </c>
-      <c r="C101" t="s">
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B102">
         <v>0</v>
       </c>
-      <c r="C102" t="s">
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B103">
         <v>0</v>
       </c>
-      <c r="C103" t="s">
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B104">
         <v>0</v>
       </c>
-      <c r="C104" t="s">
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B105">
         <v>0</v>
       </c>
-      <c r="C105" t="s">
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B106">
         <v>1</v>
       </c>
-      <c r="C106" t="s">
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B107">
         <v>1</v>
       </c>
-      <c r="C107" t="s">
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B108">
         <v>0</v>
       </c>
-      <c r="C108" t="s">
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B109">
         <v>1</v>
       </c>
-      <c r="C109" t="s">
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B110">
         <v>0</v>
       </c>
-      <c r="C110" t="s">
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B111">
         <v>0</v>
       </c>
-      <c r="C111" t="s">
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B112">
         <v>0</v>
       </c>
-      <c r="C112" t="s">
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B113">
         <v>0</v>
       </c>
-      <c r="C113" t="s">
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B114">
         <v>0</v>
       </c>
-      <c r="C114" t="s">
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B115">
         <v>1</v>
       </c>
-      <c r="C115" t="s">
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B116">
         <v>0</v>
       </c>
-      <c r="C116" t="s">
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B117">
         <v>0</v>
       </c>
-      <c r="C117" t="s">
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B118">
         <v>0</v>
       </c>
-      <c r="C118" t="s">
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B119">
         <v>1</v>
       </c>
-      <c r="C119" t="s">
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B120">
         <v>1</v>
       </c>
-      <c r="C120" t="s">
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B121">
         <v>0</v>
       </c>
-      <c r="C121" t="s">
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B122">
         <v>1</v>
       </c>
-      <c r="C122" t="s">
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B123">
         <v>0</v>
       </c>
-      <c r="C123" t="s">
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B124">
         <v>0</v>
       </c>
-      <c r="C124" t="s">
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B125">
         <v>0</v>
       </c>
-      <c r="C125" t="s">
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B126">
         <v>1</v>
       </c>
-      <c r="C126" t="s">
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B127">
         <v>0</v>
       </c>
-      <c r="C127" t="s">
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B128">
         <v>1</v>
       </c>
-      <c r="C128" t="s">
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B129">
         <v>1</v>
       </c>
-      <c r="C129" t="s">
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B130">
         <v>0</v>
       </c>
-      <c r="C130" t="s">
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B131">
         <v>1</v>
       </c>
-      <c r="C131" t="s">
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B132">
         <v>0</v>
       </c>
-      <c r="C132" t="s">
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B133">
         <v>1</v>
       </c>
-      <c r="C133" t="s">
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B134">
         <v>1</v>
       </c>
-      <c r="C134" t="s">
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B135">
         <v>0</v>
       </c>
-      <c r="C135" t="s">
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B136">
         <v>1</v>
       </c>
-      <c r="C136" t="s">
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B137">
         <v>0</v>
       </c>
-      <c r="C137" t="s">
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B138">
         <v>1</v>
       </c>
-      <c r="C138" t="s">
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B139">
         <v>0</v>
       </c>
-      <c r="C139" t="s">
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B140">
         <v>1</v>
       </c>
-      <c r="C140" t="s">
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B141">
         <v>0</v>
       </c>
-      <c r="C141" t="s">
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B142">
         <v>0</v>
       </c>
-      <c r="C142" t="s">
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B143">
         <v>1</v>
       </c>
-      <c r="C143" t="s">
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B144">
         <v>1</v>
       </c>
-      <c r="C144" t="s">
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B145">
         <v>0</v>
       </c>
-      <c r="C145" t="s">
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B146">
         <v>1</v>
       </c>
-      <c r="C146" t="s">
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B147">
         <v>0</v>
       </c>
-      <c r="C147" t="s">
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B148">
         <v>0</v>
       </c>
-      <c r="C148" t="s">
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B149">
         <v>1</v>
       </c>
-      <c r="C149" t="s">
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B150">
         <v>1</v>
       </c>
-      <c r="C150" t="s">
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B151">
         <v>0</v>
       </c>
-      <c r="C151" t="s">
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B152">
         <v>0</v>
       </c>
-      <c r="C152" t="s">
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B153">
         <v>1</v>
       </c>
-      <c r="C153" t="s">
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B154">
         <v>1</v>
       </c>
-      <c r="C154" t="s">
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B155">
         <v>0</v>
       </c>
-      <c r="C155" t="s">
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B156">
         <v>1</v>
       </c>
-      <c r="C156" t="s">
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B157">
         <v>0</v>
       </c>
-      <c r="C157" t="s">
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B158">
         <v>1</v>
       </c>
-      <c r="C158" t="s">
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B159">
         <v>0</v>
       </c>
-      <c r="C159" t="s">
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B160">
         <v>1</v>
       </c>
-      <c r="C160" t="s">
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B161">
         <v>0</v>
       </c>
-      <c r="C161" t="s">
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B162">
         <v>0</v>
       </c>
-      <c r="C162" t="s">
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B163">
         <v>0</v>
       </c>
-      <c r="C163" t="s">
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B164">
         <v>0</v>
       </c>
-      <c r="C164" t="s">
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B165">
         <v>0</v>
       </c>
-      <c r="C165" t="s">
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B166">
         <v>0</v>
       </c>
-      <c r="C166" t="s">
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B167">
         <v>0</v>
       </c>
-      <c r="C167" t="s">
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B168">
         <v>0</v>
       </c>
-      <c r="C168" t="s">
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B169">
         <v>0</v>
       </c>
-      <c r="C169" t="s">
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B170">
         <v>0</v>
       </c>
-      <c r="C170" t="s">
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B171">
         <v>0</v>
       </c>
-      <c r="C171" t="s">
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B172">
         <v>0</v>
       </c>
-      <c r="C172" t="s">
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B173">
         <v>1</v>
       </c>
-      <c r="C173" t="s">
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B174">
         <v>1</v>
       </c>
-      <c r="C174" t="s">
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B175">
         <v>0</v>
       </c>
-      <c r="C175" t="s">
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B176">
         <v>0</v>
       </c>
-      <c r="C176" t="s">
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B177">
         <v>0</v>
       </c>
-      <c r="C177" t="s">
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B178">
         <v>1</v>
       </c>
-      <c r="C178" t="s">
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B179">
         <v>0</v>
       </c>
-      <c r="C179" t="s">
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B180">
         <v>1</v>
       </c>
-      <c r="C180" t="s">
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B181">
         <v>1</v>
       </c>
-      <c r="C181" t="s">
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B182">
         <v>0</v>
       </c>
-      <c r="C182" t="s">
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B183">
         <v>1</v>
       </c>
-      <c r="C183" t="s">
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B184">
         <v>0</v>
       </c>
-      <c r="C184" t="s">
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B185">
         <v>0</v>
       </c>
-      <c r="C185" t="s">
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B186">
         <v>1</v>
       </c>
-      <c r="C186" t="s">
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B187">
         <v>0</v>
       </c>
-      <c r="C187" t="s">
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B188">
         <v>0</v>
       </c>
-      <c r="C188" t="s">
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B189">
         <v>0</v>
       </c>
-      <c r="C189" t="s">
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B190">
         <v>0</v>
       </c>
-      <c r="C190" t="s">
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B191">
         <v>0</v>
       </c>
-      <c r="C191" t="s">
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B192">
         <v>0</v>
       </c>
-      <c r="C192" t="s">
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B193">
         <v>0</v>
       </c>
-      <c r="C193" t="s">
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B194">
         <v>0</v>
       </c>
-      <c r="C194" t="s">
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B195">
         <v>0</v>
       </c>
-      <c r="C195" t="s">
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B196">
         <v>0</v>
       </c>
-      <c r="C196" t="s">
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B197">
         <v>0</v>
       </c>
-      <c r="C197" t="s">
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B198">
         <v>0</v>
       </c>
-      <c r="C198" t="s">
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B199">
         <v>0</v>
       </c>
-      <c r="C199" t="s">
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B200">
         <v>1</v>
       </c>
-      <c r="C200" t="s">
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B201">
         <v>0</v>
       </c>
-      <c r="C201" t="s">
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B202">
         <v>0</v>
       </c>
-      <c r="C202" t="s">
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B203">
         <v>0</v>
       </c>
-      <c r="C203" t="s">
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B204">
         <v>0</v>
       </c>
-      <c r="C204" t="s">
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B205">
         <v>0</v>
       </c>
-      <c r="C205" t="s">
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B206">
         <v>1</v>
       </c>
-      <c r="C206" t="s">
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B207">
         <v>0</v>
       </c>
-      <c r="C207" t="s">
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B208">
         <v>0</v>
       </c>
-      <c r="C208" t="s">
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B209">
         <v>1</v>
       </c>
-      <c r="C209" t="s">
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B210">
         <v>0</v>
       </c>
-      <c r="C210" t="s">
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B211">
         <v>0</v>
       </c>
-      <c r="C211" t="s">
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B212">
         <v>1</v>
       </c>
-      <c r="C212" t="s">
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B213">
         <v>1</v>
       </c>
-      <c r="C213" t="s">
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B214">
         <v>1</v>
       </c>
-      <c r="C214" t="s">
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B215">
         <v>0</v>
       </c>
-      <c r="C215" t="s">
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B216">
         <v>0</v>
       </c>
-      <c r="C216" t="s">
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B217">
         <v>0</v>
       </c>
-      <c r="C217" t="s">
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B218">
         <v>0</v>
       </c>
-      <c r="C218" t="s">
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B219">
         <v>1</v>
       </c>
-      <c r="C219" t="s">
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B220">
         <v>0</v>
       </c>
-      <c r="C220" t="s">
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B221">
         <v>1</v>
       </c>
-      <c r="C221" t="s">
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B222">
         <v>0</v>
       </c>
-      <c r="C222" t="s">
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B223">
         <v>1</v>
       </c>
-      <c r="C223" t="s">
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B224">
         <v>1</v>
       </c>
-      <c r="C224" t="s">
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B225">
         <v>0</v>
       </c>
-      <c r="C225" t="s">
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B226">
         <v>0</v>
       </c>
-      <c r="C226" t="s">
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B227">
         <v>0</v>
       </c>
-      <c r="C227" t="s">
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B228">
         <v>0</v>
       </c>
-      <c r="C228" t="s">
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B229">
         <v>1</v>
       </c>
-      <c r="C229" t="s">
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B230">
         <v>0</v>
       </c>
-      <c r="C230" t="s">
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B231">
         <v>0</v>
       </c>
-      <c r="C231" t="s">
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B232">
         <v>0</v>
       </c>
-      <c r="C232" t="s">
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B233">
         <v>0</v>
       </c>
-      <c r="C233" t="s">
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B234">
         <v>1</v>
       </c>
-      <c r="C234" t="s">
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B235">
         <v>0</v>
       </c>
-      <c r="C235" t="s">
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B236">
         <v>0</v>
       </c>
-      <c r="C236" t="s">
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B237">
         <v>1</v>
       </c>
-      <c r="C237" t="s">
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B238">
         <v>0</v>
       </c>
-      <c r="C238" t="s">
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B239">
         <v>1</v>
       </c>
-      <c r="C239" t="s">
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B240">
         <v>0</v>
       </c>
-      <c r="C240" t="s">
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B241">
         <v>0</v>
       </c>
-      <c r="C241" t="s">
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B242">
         <v>0</v>
       </c>
-      <c r="C242" t="s">
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B243">
         <v>0</v>
       </c>
-      <c r="C243" t="s">
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B244">
         <v>0</v>
       </c>
-      <c r="C244" t="s">
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B245">
         <v>0</v>
       </c>
-      <c r="C245" t="s">
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B246">
         <v>1</v>
       </c>
-      <c r="C246" t="s">
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B247">
         <v>1</v>
       </c>
-      <c r="C247" t="s">
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B248">
         <v>0</v>
       </c>
-      <c r="C248" t="s">
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B249">
         <v>1</v>
       </c>
-      <c r="C249" t="s">
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B250">
         <v>0</v>
       </c>
-      <c r="C250" t="s">
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B251">
         <v>0</v>
       </c>
-      <c r="C251" t="s">
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B252">
         <v>0</v>
       </c>
-      <c r="C252" t="s">
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B253">
         <v>0</v>
       </c>
-      <c r="C253" t="s">
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B254">
         <v>0</v>
       </c>
-      <c r="C254" t="s">
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B255">
         <v>0</v>
       </c>
-      <c r="C255" t="s">
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="256" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B256">
         <v>0</v>
       </c>
-      <c r="C256" t="s">
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B257">
         <v>0</v>
       </c>
-      <c r="C257" t="s">
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B258">
         <v>0</v>
       </c>
-      <c r="C258" t="s">
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B259">
         <v>0</v>
       </c>
-      <c r="C259" t="s">
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B260">
         <v>0</v>
       </c>
-      <c r="C260" t="s">
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B261">
         <v>0</v>
       </c>
-      <c r="C261" t="s">
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B262">
         <v>0</v>
       </c>
-      <c r="C262" t="s">
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B263">
         <v>0</v>
       </c>
-      <c r="C263" t="s">
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="264" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B264">
         <v>0</v>
       </c>
-      <c r="C264" t="s">
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="265" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B265">
         <v>0</v>
       </c>
-      <c r="C265" t="s">
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B266">
         <v>0</v>
       </c>
-      <c r="C266" t="s">
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B267">
         <v>0</v>
       </c>
-      <c r="C267" t="s">
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="268" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B268">
         <v>0</v>
       </c>
-      <c r="C268" t="s">
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="269" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B269">
         <v>0</v>
       </c>
-      <c r="C269" t="s">
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="270" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B270">
         <v>1</v>
       </c>
-      <c r="C270" t="s">
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="271" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B271">
         <v>0</v>
       </c>
-      <c r="C271" t="s">
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="272" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B272">
         <v>0</v>
       </c>
-      <c r="C272" t="s">
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="273" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B273">
         <v>1</v>
       </c>
-      <c r="C273" t="s">
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B274">
         <v>0</v>
       </c>
-      <c r="C274" t="s">
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="275" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B275">
         <v>0</v>
       </c>
-      <c r="C275" t="s">
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B276">
         <v>0</v>
       </c>
-      <c r="C276" t="s">
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B277">
         <v>0</v>
       </c>
-      <c r="C277" t="s">
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="278" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B278">
         <v>0</v>
       </c>
-      <c r="C278" t="s">
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="279" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B279">
         <v>0</v>
       </c>
-      <c r="C279" t="s">
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B280">
         <v>0</v>
       </c>
-      <c r="C280" t="s">
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="281" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B281">
         <v>0</v>
       </c>
-      <c r="C281" t="s">
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="282" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B282">
         <v>0</v>
       </c>
-      <c r="C282" t="s">
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="283" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B283">
         <v>0</v>
       </c>
-      <c r="C283" t="s">
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="284" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B284">
         <v>1</v>
       </c>
-      <c r="C284" t="s">
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="285" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B285">
         <v>1</v>
       </c>
-      <c r="C285" t="s">
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="286" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B286">
         <v>1</v>
       </c>
-      <c r="C286" t="s">
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="287" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B287">
         <v>1</v>
       </c>
-      <c r="C287" t="s">
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B288">
         <v>0</v>
       </c>
-      <c r="C288" t="s">
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="289" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B289">
         <v>0</v>
       </c>
-      <c r="C289" t="s">
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B290">
         <v>1</v>
       </c>
-      <c r="C290" t="s">
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="291" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B291">
         <v>0</v>
       </c>
-      <c r="C291" t="s">
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B292">
         <v>1</v>
       </c>
-      <c r="C292" t="s">
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B293">
         <v>1</v>
       </c>
-      <c r="C293" t="s">
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="294" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B294">
         <v>1</v>
       </c>
-      <c r="C294" t="s">
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="295" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B295">
         <v>1</v>
       </c>
-      <c r="C295" t="s">
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="296" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B296">
         <v>0</v>
       </c>
-      <c r="C296" t="s">
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="297" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B297">
         <v>1</v>
       </c>
-      <c r="C297" t="s">
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="298" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B298">
         <v>0</v>
       </c>
-      <c r="C298" t="s">
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="299" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B299">
         <v>0</v>
       </c>
-      <c r="C299" t="s">
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="300" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B300">
         <v>0</v>
       </c>
-      <c r="C300" t="s">
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="301" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B301">
         <v>0</v>
-      </c>
-      <c r="C301" t="s">
-        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -5079,2095 +5070,2097 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:C260"/>
+  <dimension ref="A1:C260"/>
   <sheetViews>
-    <sheetView topLeftCell="B247" workbookViewId="0">
-      <selection activeCell="B261" sqref="B261"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="255.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="B1" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="C1" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>0</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>0</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>0</v>
       </c>
-      <c r="C25" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>0</v>
       </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>0</v>
       </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>1</v>
       </c>
-      <c r="C29" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>0</v>
       </c>
-      <c r="C30" t="s">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>1</v>
       </c>
-      <c r="C31" t="s">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>0</v>
       </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>0</v>
       </c>
-      <c r="C33" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>0</v>
       </c>
-      <c r="C35" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>1</v>
       </c>
-      <c r="C36" t="s">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>1</v>
       </c>
-      <c r="C37" t="s">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>0</v>
       </c>
-      <c r="C38" t="s">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>1</v>
       </c>
-      <c r="C39" t="s">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>0</v>
       </c>
-      <c r="C40" t="s">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>0</v>
       </c>
-      <c r="C41" t="s">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>0</v>
       </c>
-      <c r="C42" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>0</v>
       </c>
-      <c r="C43" t="s">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>0</v>
       </c>
-      <c r="C44" t="s">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>1</v>
       </c>
-      <c r="C45" t="s">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>0</v>
       </c>
-      <c r="C46" t="s">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>0</v>
       </c>
-      <c r="C47" t="s">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>1</v>
       </c>
-      <c r="C48" t="s">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>0</v>
       </c>
-      <c r="C49" t="s">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>1</v>
       </c>
-      <c r="C50" t="s">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>1</v>
       </c>
-      <c r="C51" t="s">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>0</v>
       </c>
-      <c r="C52" t="s">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>1</v>
       </c>
-      <c r="C53" t="s">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>1</v>
       </c>
-      <c r="C54" t="s">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>0</v>
       </c>
-      <c r="C55" t="s">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>0</v>
       </c>
-      <c r="C56" t="s">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>1</v>
       </c>
-      <c r="C57" t="s">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>1</v>
       </c>
-      <c r="C58" t="s">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>0</v>
       </c>
-      <c r="C59" t="s">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>1</v>
       </c>
-      <c r="C60" t="s">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>0</v>
       </c>
-      <c r="C61" t="s">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>0</v>
       </c>
-      <c r="C62" t="s">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>0</v>
       </c>
-      <c r="C63" t="s">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>1</v>
       </c>
-      <c r="C64" t="s">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>1</v>
       </c>
-      <c r="C65" t="s">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>1</v>
       </c>
-      <c r="C66" t="s">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>0</v>
       </c>
-      <c r="C67" t="s">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>0</v>
       </c>
-      <c r="C68" t="s">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>0</v>
       </c>
-      <c r="C69" t="s">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>1</v>
       </c>
-      <c r="C70" t="s">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B71">
         <v>1</v>
       </c>
-      <c r="C71" t="s">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B72">
         <v>1</v>
       </c>
-      <c r="C72" t="s">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B73">
         <v>1</v>
       </c>
-      <c r="C73" t="s">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B74">
         <v>1</v>
       </c>
-      <c r="C74" t="s">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B75">
         <v>0</v>
       </c>
-      <c r="C75" t="s">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B76">
         <v>0</v>
       </c>
-      <c r="C76" t="s">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B77">
         <v>0</v>
       </c>
-      <c r="C77" t="s">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B78">
         <v>0</v>
       </c>
-      <c r="C78" t="s">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B79">
         <v>1</v>
       </c>
-      <c r="C79" t="s">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B80">
         <v>1</v>
       </c>
-      <c r="C80" t="s">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B81">
         <v>0</v>
       </c>
-      <c r="C81" t="s">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B82">
         <v>1</v>
       </c>
-      <c r="C82" t="s">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B83">
         <v>0</v>
       </c>
-      <c r="C83" t="s">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B84">
         <v>0</v>
       </c>
-      <c r="C84" t="s">
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B85">
         <v>1</v>
       </c>
-      <c r="C85" t="s">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B86">
         <v>0</v>
       </c>
-      <c r="C86" t="s">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B87">
         <v>0</v>
       </c>
-      <c r="C87" t="s">
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B88">
         <v>0</v>
       </c>
-      <c r="C88" t="s">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B89">
         <v>1</v>
       </c>
-      <c r="C89" t="s">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B90">
         <v>1</v>
       </c>
-      <c r="C90" t="s">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B91">
         <v>1</v>
       </c>
-      <c r="C91" t="s">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B92">
         <v>0</v>
       </c>
-      <c r="C92" t="s">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B93">
         <v>0</v>
       </c>
-      <c r="C93" t="s">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B94">
         <v>1</v>
       </c>
-      <c r="C94" t="s">
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B95">
         <v>1</v>
       </c>
-      <c r="C95" t="s">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B96">
         <v>0</v>
       </c>
-      <c r="C96" t="s">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B97">
         <v>0</v>
       </c>
-      <c r="C97" t="s">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B98">
         <v>0</v>
       </c>
-      <c r="C98" t="s">
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B99">
         <v>0</v>
       </c>
-      <c r="C99" t="s">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B100">
         <v>0</v>
       </c>
-      <c r="C100" t="s">
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B101">
         <v>0</v>
       </c>
-      <c r="C101" t="s">
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B102">
         <v>1</v>
       </c>
-      <c r="C102" t="s">
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B103">
         <v>1</v>
       </c>
-      <c r="C103" t="s">
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B104">
         <v>1</v>
       </c>
-      <c r="C104" t="s">
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B105">
         <v>0</v>
       </c>
-      <c r="C105" t="s">
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B106">
         <v>1</v>
       </c>
-      <c r="C106" t="s">
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B107">
         <v>0</v>
       </c>
-      <c r="C107" t="s">
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B108">
         <v>1</v>
       </c>
-      <c r="C108" t="s">
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B109">
         <v>1</v>
       </c>
-      <c r="C109" t="s">
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B110">
         <v>0</v>
       </c>
-      <c r="C110" t="s">
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B111">
         <v>0</v>
       </c>
-      <c r="C111" t="s">
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B112">
         <v>0</v>
       </c>
-      <c r="C112" t="s">
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B113">
         <v>1</v>
       </c>
-      <c r="C113" t="s">
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B114">
         <v>0</v>
       </c>
-      <c r="C114" t="s">
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B115">
         <v>0</v>
       </c>
-      <c r="C115" t="s">
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B116">
         <v>1</v>
       </c>
-      <c r="C116" t="s">
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B117">
         <v>0</v>
       </c>
-      <c r="C117" t="s">
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B118">
         <v>1</v>
       </c>
-      <c r="C118" t="s">
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B119">
         <v>0</v>
       </c>
-      <c r="C119" t="s">
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B120">
         <v>1</v>
       </c>
-      <c r="C120" t="s">
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B121">
         <v>1</v>
       </c>
-      <c r="C121" t="s">
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B122">
         <v>0</v>
       </c>
-      <c r="C122" t="s">
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B123">
         <v>1</v>
       </c>
-      <c r="C123" t="s">
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B124">
         <v>0</v>
       </c>
-      <c r="C124" t="s">
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B125">
         <v>1</v>
       </c>
-      <c r="C125" t="s">
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B126">
         <v>1</v>
       </c>
-      <c r="C126" t="s">
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B127">
         <v>1</v>
       </c>
-      <c r="C127" t="s">
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B128">
         <v>1</v>
       </c>
-      <c r="C128" t="s">
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B129">
         <v>0</v>
       </c>
-      <c r="C129" t="s">
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B130">
         <v>1</v>
       </c>
-      <c r="C130" t="s">
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B131">
         <v>0</v>
       </c>
-      <c r="C131" t="s">
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B132">
         <v>0</v>
       </c>
-      <c r="C132" t="s">
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B133">
         <v>0</v>
       </c>
-      <c r="C133" t="s">
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B134">
         <v>1</v>
       </c>
-      <c r="C134" t="s">
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B135">
         <v>1</v>
       </c>
-      <c r="C135" t="s">
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B136">
         <v>0</v>
       </c>
-      <c r="C136" t="s">
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B137">
         <v>0</v>
       </c>
-      <c r="C137" t="s">
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B138">
         <v>0</v>
       </c>
-      <c r="C138" t="s">
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B139">
         <v>0</v>
       </c>
-      <c r="C139" t="s">
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B140">
         <v>0</v>
       </c>
-      <c r="C140" t="s">
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B141">
         <v>0</v>
       </c>
-      <c r="C141" t="s">
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B142">
         <v>1</v>
       </c>
-      <c r="C142" t="s">
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B143">
         <v>0</v>
       </c>
-      <c r="C143" t="s">
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B144">
         <v>0</v>
       </c>
-      <c r="C144" t="s">
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B145">
         <v>0</v>
       </c>
-      <c r="C145" t="s">
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B146">
         <v>0</v>
       </c>
-      <c r="C146" t="s">
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B147">
         <v>0</v>
       </c>
-      <c r="C147" t="s">
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B148">
         <v>1</v>
       </c>
-      <c r="C148" t="s">
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B149">
         <v>0</v>
       </c>
-      <c r="C149" t="s">
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B150">
         <v>1</v>
       </c>
-      <c r="C150" t="s">
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B151">
         <v>1</v>
       </c>
-      <c r="C151" t="s">
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B152">
         <v>0</v>
       </c>
-      <c r="C152" t="s">
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B153">
         <v>0</v>
       </c>
-      <c r="C153" t="s">
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B154">
         <v>0</v>
       </c>
-      <c r="C154" t="s">
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B155">
         <v>0</v>
       </c>
-      <c r="C155" t="s">
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B156">
         <v>1</v>
       </c>
-      <c r="C156" t="s">
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B157">
         <v>0</v>
       </c>
-      <c r="C157" t="s">
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B158">
         <v>0</v>
       </c>
-      <c r="C158" t="s">
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B159">
         <v>0</v>
       </c>
-      <c r="C159" t="s">
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B160">
         <v>0</v>
       </c>
-      <c r="C160" t="s">
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B161">
         <v>1</v>
       </c>
-      <c r="C161" t="s">
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B162">
         <v>0</v>
       </c>
-      <c r="C162" t="s">
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B163">
         <v>1</v>
       </c>
-      <c r="C163" t="s">
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B164">
         <v>0</v>
       </c>
-      <c r="C164" t="s">
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B165">
         <v>0</v>
       </c>
-      <c r="C165" t="s">
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B166">
         <v>1</v>
       </c>
-      <c r="C166" t="s">
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B167">
         <v>0</v>
       </c>
-      <c r="C167" t="s">
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B168">
         <v>1</v>
       </c>
-      <c r="C168" t="s">
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B169">
         <v>0</v>
       </c>
-      <c r="C169" t="s">
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B170">
         <v>1</v>
       </c>
-      <c r="C170" t="s">
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B171">
         <v>1</v>
       </c>
-      <c r="C171" t="s">
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B172">
         <v>1</v>
       </c>
-      <c r="C172" t="s">
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B173">
         <v>1</v>
       </c>
-      <c r="C173" t="s">
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B174">
         <v>1</v>
       </c>
-      <c r="C174" t="s">
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B175">
         <v>1</v>
       </c>
-      <c r="C175" t="s">
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B176">
         <v>1</v>
       </c>
-      <c r="C176" t="s">
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B177">
         <v>0</v>
       </c>
-      <c r="C177" t="s">
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B178">
         <v>0</v>
       </c>
-      <c r="C178" t="s">
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B179">
         <v>1</v>
       </c>
-      <c r="C179" t="s">
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B180">
         <v>0</v>
       </c>
-      <c r="C180" t="s">
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B181">
         <v>0</v>
       </c>
-      <c r="C181" t="s">
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B182">
         <v>1</v>
       </c>
-      <c r="C182" t="s">
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B183">
         <v>0</v>
       </c>
-      <c r="C183" t="s">
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B184">
         <v>0</v>
       </c>
-      <c r="C184" t="s">
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B185">
         <v>0</v>
       </c>
-      <c r="C185" t="s">
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B186">
         <v>1</v>
       </c>
-      <c r="C186" t="s">
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B187">
         <v>1</v>
       </c>
-      <c r="C187" t="s">
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B188">
         <v>0</v>
       </c>
-      <c r="C188" t="s">
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B189">
         <v>0</v>
       </c>
-      <c r="C189" t="s">
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B190">
         <v>0</v>
       </c>
-      <c r="C190" t="s">
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B191">
         <v>0</v>
       </c>
-      <c r="C191" t="s">
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B192">
         <v>1</v>
       </c>
-      <c r="C192" t="s">
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B193">
         <v>1</v>
       </c>
-      <c r="C193" t="s">
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B194">
         <v>1</v>
       </c>
-      <c r="C194" t="s">
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B195">
         <v>1</v>
       </c>
-      <c r="C195" t="s">
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B196">
         <v>0</v>
       </c>
-      <c r="C196" t="s">
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B197">
         <v>0</v>
       </c>
-      <c r="C197" t="s">
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B198">
         <v>0</v>
       </c>
-      <c r="C198" t="s">
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B199">
         <v>0</v>
       </c>
-      <c r="C199" t="s">
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B200">
         <v>0</v>
       </c>
-      <c r="C200" t="s">
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B201">
         <v>0</v>
       </c>
-      <c r="C201" t="s">
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B202">
         <v>1</v>
       </c>
-      <c r="C202" t="s">
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B203">
         <v>0</v>
       </c>
-      <c r="C203" t="s">
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B204">
         <v>1</v>
       </c>
-      <c r="C204" t="s">
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B205">
         <v>0</v>
       </c>
-      <c r="C205" t="s">
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B206">
         <v>0</v>
       </c>
-      <c r="C206" t="s">
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B207">
         <v>0</v>
       </c>
-      <c r="C207" t="s">
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B208">
         <v>1</v>
       </c>
-      <c r="C208" t="s">
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B209">
         <v>0</v>
       </c>
-      <c r="C209" t="s">
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B210">
         <v>1</v>
       </c>
-      <c r="C210" t="s">
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B211">
         <v>1</v>
       </c>
-      <c r="C211" t="s">
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B212">
         <v>0</v>
       </c>
-      <c r="C212" t="s">
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B213">
         <v>0</v>
       </c>
-      <c r="C213" t="s">
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B214">
         <v>1</v>
       </c>
-      <c r="C214" t="s">
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B215">
         <v>1</v>
       </c>
-      <c r="C215" t="s">
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B216">
         <v>0</v>
       </c>
-      <c r="C216" t="s">
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B217">
         <v>0</v>
       </c>
-      <c r="C217" t="s">
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B218">
         <v>1</v>
       </c>
-      <c r="C218" t="s">
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B219">
         <v>1</v>
       </c>
-      <c r="C219" t="s">
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B220">
         <v>1</v>
       </c>
-      <c r="C220" t="s">
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B221">
         <v>1</v>
       </c>
-      <c r="C221" t="s">
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B222">
         <v>1</v>
       </c>
-      <c r="C222" t="s">
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B223">
         <v>1</v>
       </c>
-      <c r="C223" t="s">
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B224">
         <v>1</v>
       </c>
-      <c r="C224" t="s">
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B225">
         <v>0</v>
       </c>
-      <c r="C225" t="s">
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B226">
         <v>0</v>
       </c>
-      <c r="C226" t="s">
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B227">
         <v>0</v>
       </c>
-      <c r="C227" t="s">
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B228">
         <v>1</v>
       </c>
-      <c r="C228" t="s">
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B229">
         <v>1</v>
       </c>
-      <c r="C229" t="s">
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B230">
         <v>0</v>
       </c>
-      <c r="C230" t="s">
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="231" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B231">
         <v>0</v>
       </c>
-      <c r="C231" t="s">
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="232" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B232">
         <v>0</v>
       </c>
-      <c r="C232" t="s">
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="233" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B233">
         <v>0</v>
       </c>
-      <c r="C233" t="s">
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="234" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B234">
         <v>1</v>
       </c>
-      <c r="C234" t="s">
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="235" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B235">
         <v>1</v>
       </c>
-      <c r="C235" t="s">
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="236" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B236">
         <v>1</v>
       </c>
-      <c r="C236" t="s">
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="237" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B237">
         <v>0</v>
       </c>
-      <c r="C237" t="s">
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="238" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B238">
         <v>1</v>
       </c>
-      <c r="C238" t="s">
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="239" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B239">
         <v>1</v>
       </c>
-      <c r="C239" t="s">
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="240" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B240">
         <v>0</v>
       </c>
-      <c r="C240" t="s">
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="241" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B241">
         <v>1</v>
       </c>
-      <c r="C241" t="s">
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="242" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B242">
         <v>1</v>
       </c>
-      <c r="C242" t="s">
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="243" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B243">
         <v>0</v>
       </c>
-      <c r="C243" t="s">
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="244" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B244">
         <v>0</v>
       </c>
-      <c r="C244" t="s">
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="245" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B245">
         <v>0</v>
       </c>
-      <c r="C245" t="s">
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="246" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B246">
         <v>1</v>
       </c>
-      <c r="C246" t="s">
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="247" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B247">
         <v>0</v>
       </c>
-      <c r="C247" t="s">
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="248" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B248">
         <v>1</v>
       </c>
-      <c r="C248" t="s">
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="249" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B249">
         <v>0</v>
       </c>
-      <c r="C249" t="s">
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="250" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B250">
         <v>0</v>
       </c>
-      <c r="C250" t="s">
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="251" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B251">
         <v>0</v>
       </c>
-      <c r="C251" t="s">
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="252" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B252">
         <v>0</v>
       </c>
-      <c r="C252" t="s">
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="253" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B253">
         <v>0</v>
       </c>
-      <c r="C253" t="s">
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="254" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B254">
         <v>1</v>
       </c>
-      <c r="C254" t="s">
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="255" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B255">
         <v>1</v>
       </c>
-      <c r="C255" t="s">
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="256" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B256">
         <v>0</v>
       </c>
-      <c r="C256" t="s">
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="257" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B257">
         <v>1</v>
       </c>
-      <c r="C257" t="s">
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="258" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B258">
         <v>0</v>
       </c>
-      <c r="C258" t="s">
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="259" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B259">
         <v>0</v>
       </c>
-      <c r="C259" t="s">
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="260" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B260">
         <v>0</v>
-      </c>
-      <c r="C260" t="s">
-        <v>560</v>
       </c>
     </row>
   </sheetData>

--- a/XIAOMI.xlsx
+++ b/XIAOMI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\layneps\Desktop\Insper\CDados\PROJETO 1\PROJETO-1-CDADOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lidia\Desktop\Ciência dos Dados\Projeto1\PROJETO-1-CDADOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5138402-C05B-4E8E-8784-D2CF51CF8190}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825A9B55-C1BD-4B4B-B204-D59241569E90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1046,9 +1046,6 @@
   </si>
   <si>
     <t>rt @xiaomiespana: @yoigo papi, te amo @xiaomi #mi11paramipadreconyoigo https://t.co/zr1m0bxzug</t>
-  </si>
-  <si>
-    <t>@mslaryhill eu comprei um na shopee por 50 reais e ele eh perfeito, ele dura 5hr na orelha, a caixinha eu carrego uma vez a cada uma semana e meia e ela consegue carregar o celular tbm já tive o da xiaomi e ele tinha muito problema de pareamento entre os lados e esse n tenho nada a reclamar</t>
   </si>
   <si>
     <t>pra quem nao sabe motorola/xiaomi eh assim viu https://t.co/y9kkug9gtf</t>
@@ -1965,9 +1962,6 @@
 lojas parceiras: https://t.co/xqn5bnm5i3 https://t.co/ibwrhunoyb</t>
   </si>
   <si>
-    <t>@signofparker eu tenho xiaomi mas não tenho esse app vou me j</t>
-  </si>
-  <si>
     <t>@centralcactos xiaomi 🙈
 freirejuliette voltou</t>
   </si>
@@ -2230,12 +2224,18 @@
   <si>
     <t>TREINAMENTO</t>
   </si>
+  <si>
+    <t>eu comprei um na shopee por 50 reais e ele eh perfeito, ele dura 5hr na orelha, a caixinha eu carrego uma vez a cada uma semana e meia e ela consegue carregar o celular tbm já tive o da xiaomi e ele tinha muito problema de pareamento entre os lados e esse n tenho nada a reclamar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eu tenho xiaomi mas não tenho esse app vou me j</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2253,6 +2253,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2293,7 +2301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2304,6 +2312,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2642,9 +2654,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D301"/>
+  <dimension ref="A1:D302"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="A172" sqref="A172"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2654,10 +2668,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -2762,7 +2776,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -2914,7 +2928,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -2938,7 +2952,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -2994,7 +3008,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -3010,7 +3024,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -3034,7 +3048,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -3066,7 +3080,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -3122,7 +3136,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -3154,7 +3168,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -3170,7 +3184,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -3218,7 +3232,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -3234,7 +3248,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -3250,7 +3264,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -3258,7 +3272,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -3290,7 +3304,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -3322,7 +3336,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -3418,7 +3432,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -3490,7 +3504,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
@@ -3586,7 +3600,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
@@ -3642,7 +3656,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
@@ -3706,7 +3720,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
@@ -3810,7 +3824,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
@@ -3834,7 +3848,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
@@ -3858,7 +3872,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
@@ -3866,7 +3880,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
@@ -3890,7 +3904,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
@@ -3946,7 +3960,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
@@ -3978,7 +3992,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
@@ -4082,7 +4096,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
@@ -4170,7 +4184,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
@@ -4178,7 +4192,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
@@ -4186,7 +4200,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
@@ -4282,7 +4296,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
@@ -4306,7 +4320,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
@@ -4330,7 +4344,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
@@ -4394,7 +4408,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
@@ -4498,7 +4512,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
@@ -4506,7 +4520,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
@@ -4554,7 +4568,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
@@ -4589,12 +4603,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A243" t="s">
+    <row r="243" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A243" s="6" t="s">
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
@@ -4666,7 +4680,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
@@ -4698,7 +4712,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
@@ -4706,7 +4720,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
@@ -4719,15 +4733,15 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>257</v>
+        <v>560</v>
       </c>
       <c r="B259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B260">
         <v>0</v>
@@ -4735,7 +4749,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B261">
         <v>0</v>
@@ -4743,7 +4757,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B262">
         <v>0</v>
@@ -4751,7 +4765,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B263">
         <v>0</v>
@@ -4759,15 +4773,15 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B265">
         <v>0</v>
@@ -4775,7 +4789,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B266">
         <v>0</v>
@@ -4783,7 +4797,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B267">
         <v>0</v>
@@ -4791,23 +4805,23 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B270">
         <v>1</v>
@@ -4815,7 +4829,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B271">
         <v>0</v>
@@ -4823,7 +4837,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B272">
         <v>0</v>
@@ -4831,7 +4845,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -4839,7 +4853,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B274">
         <v>0</v>
@@ -4847,7 +4861,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B275">
         <v>0</v>
@@ -4855,7 +4869,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B276">
         <v>0</v>
@@ -4863,7 +4877,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B277">
         <v>0</v>
@@ -4871,15 +4885,15 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B279">
         <v>0</v>
@@ -4887,7 +4901,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B280">
         <v>0</v>
@@ -4895,7 +4909,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B281">
         <v>0</v>
@@ -4903,7 +4917,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B282">
         <v>0</v>
@@ -4911,7 +4925,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B283">
         <v>0</v>
@@ -4919,7 +4933,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B284">
         <v>1</v>
@@ -4927,7 +4941,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B285">
         <v>1</v>
@@ -4935,7 +4949,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B286">
         <v>1</v>
@@ -4943,7 +4957,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B287">
         <v>1</v>
@@ -4951,7 +4965,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B288">
         <v>0</v>
@@ -4959,15 +4973,15 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -4975,7 +4989,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B291">
         <v>0</v>
@@ -4983,7 +4997,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -4991,7 +5005,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -4999,7 +5013,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -5007,7 +5021,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -5015,7 +5029,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B296">
         <v>0</v>
@@ -5023,7 +5037,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -5031,7 +5045,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B298">
         <v>0</v>
@@ -5039,7 +5053,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B299">
         <v>0</v>
@@ -5047,7 +5061,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B300">
         <v>0</v>
@@ -5055,11 +5069,14 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B301">
         <v>0</v>
       </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A302" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5072,8 +5089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="A195" sqref="A195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5084,16 +5101,16 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5101,7 +5118,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5109,7 +5126,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -5117,7 +5134,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -5125,7 +5142,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5133,7 +5150,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -5141,7 +5158,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -5149,7 +5166,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
@@ -5157,7 +5174,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
@@ -5165,15 +5182,15 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -5181,7 +5198,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -5189,15 +5206,15 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -5205,7 +5222,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -5213,7 +5230,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -5221,7 +5238,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -5229,7 +5246,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -5237,7 +5254,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -5245,7 +5262,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -5253,7 +5270,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -5261,7 +5278,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -5269,23 +5286,23 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -5293,7 +5310,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -5301,7 +5318,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -5309,7 +5326,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -5317,7 +5334,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -5325,7 +5342,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -5333,7 +5350,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -5341,15 +5358,15 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -5357,15 +5374,15 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -5373,7 +5390,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -5381,7 +5398,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5389,7 +5406,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -5397,7 +5414,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5405,7 +5422,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5413,7 +5430,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5421,7 +5438,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5429,15 +5446,15 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -5445,15 +5462,15 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -5461,7 +5478,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -5469,7 +5486,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -5477,7 +5494,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -5485,7 +5502,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -5493,7 +5510,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -5501,7 +5518,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -5509,7 +5526,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -5517,7 +5534,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -5525,7 +5542,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -5533,7 +5550,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -5541,7 +5558,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -5549,7 +5566,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -5557,7 +5574,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -5565,7 +5582,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -5573,15 +5590,15 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -5589,7 +5606,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -5597,7 +5614,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -5605,7 +5622,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -5613,7 +5630,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -5621,7 +5638,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -5629,15 +5646,15 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -5645,7 +5662,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -5653,7 +5670,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -5661,7 +5678,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -5669,7 +5686,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -5677,7 +5694,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -5685,7 +5702,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -5693,7 +5710,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -5701,7 +5718,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -5709,7 +5726,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -5717,7 +5734,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -5725,15 +5742,15 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -5741,7 +5758,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -5749,7 +5766,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -5757,7 +5774,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -5765,15 +5782,15 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -5781,7 +5798,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -5789,7 +5806,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -5797,7 +5814,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -5805,7 +5822,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -5813,15 +5830,15 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -5829,7 +5846,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -5837,7 +5854,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -5845,7 +5862,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -5853,7 +5870,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -5861,7 +5878,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -5869,7 +5886,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -5877,7 +5894,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -5885,15 +5902,15 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -5901,7 +5918,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -5909,7 +5926,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -5917,7 +5934,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -5925,7 +5942,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -5933,15 +5950,15 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -5949,7 +5966,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -5957,15 +5974,15 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -5973,7 +5990,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -5981,7 +5998,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -5989,7 +6006,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -5997,7 +6014,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -6005,7 +6022,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -6013,7 +6030,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -6021,7 +6038,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -6029,7 +6046,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -6037,7 +6054,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -6045,7 +6062,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -6053,7 +6070,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -6061,7 +6078,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -6069,7 +6086,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -6077,7 +6094,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -6085,7 +6102,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -6093,7 +6110,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -6101,7 +6118,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -6109,7 +6126,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -6117,7 +6134,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -6125,15 +6142,15 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -6141,7 +6158,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -6149,7 +6166,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -6157,7 +6174,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -6165,7 +6182,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -6173,7 +6190,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -6181,7 +6198,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -6189,7 +6206,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -6197,7 +6214,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -6205,7 +6222,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -6213,7 +6230,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -6221,7 +6238,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -6229,7 +6246,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -6237,7 +6254,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -6245,7 +6262,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -6253,7 +6270,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -6261,7 +6278,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -6269,7 +6286,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -6277,7 +6294,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -6285,7 +6302,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -6293,7 +6310,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -6301,7 +6318,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -6309,15 +6326,15 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -6325,7 +6342,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -6333,15 +6350,15 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -6349,7 +6366,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -6357,7 +6374,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -6365,7 +6382,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -6373,7 +6390,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -6381,7 +6398,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -6389,7 +6406,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -6397,7 +6414,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -6405,7 +6422,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -6413,7 +6430,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -6421,7 +6438,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -6429,7 +6446,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -6437,7 +6454,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -6445,7 +6462,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -6453,7 +6470,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -6461,7 +6478,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -6469,7 +6486,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -6477,7 +6494,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -6485,7 +6502,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -6493,7 +6510,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -6501,7 +6518,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -6509,7 +6526,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -6517,7 +6534,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -6525,7 +6542,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -6533,7 +6550,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -6541,7 +6558,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -6549,7 +6566,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -6557,7 +6574,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -6565,7 +6582,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -6573,7 +6590,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -6581,7 +6598,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -6589,7 +6606,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -6597,7 +6614,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>489</v>
+        <v>561</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -6605,7 +6622,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -6613,7 +6630,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -6621,7 +6638,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -6629,7 +6646,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -6637,7 +6654,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -6645,7 +6662,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -6653,7 +6670,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -6661,7 +6678,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -6669,7 +6686,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -6677,7 +6694,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -6685,15 +6702,15 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -6701,7 +6718,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B203">
         <v>0</v>
@@ -6709,7 +6726,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -6717,7 +6734,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B205">
         <v>0</v>
@@ -6725,7 +6742,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B206">
         <v>0</v>
@@ -6733,7 +6750,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B207">
         <v>0</v>
@@ -6741,7 +6758,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -6749,7 +6766,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B209">
         <v>0</v>
@@ -6757,7 +6774,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -6765,7 +6782,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -6773,7 +6790,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -6781,7 +6798,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B213">
         <v>0</v>
@@ -6789,7 +6806,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B214">
         <v>1</v>
@@ -6797,7 +6814,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -6805,7 +6822,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B216">
         <v>0</v>
@@ -6813,7 +6830,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B217">
         <v>0</v>
@@ -6821,7 +6838,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -6829,7 +6846,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -6837,7 +6854,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -6845,7 +6862,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B221">
         <v>1</v>
@@ -6853,7 +6870,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B222">
         <v>1</v>
@@ -6861,7 +6878,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -6869,7 +6886,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -6877,7 +6894,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B225">
         <v>0</v>
@@ -6885,7 +6902,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B226">
         <v>0</v>
@@ -6893,7 +6910,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B227">
         <v>0</v>
@@ -6901,7 +6918,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B228">
         <v>1</v>
@@ -6909,7 +6926,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B229">
         <v>1</v>
@@ -6917,7 +6934,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B230">
         <v>0</v>
@@ -6925,7 +6942,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B231">
         <v>0</v>
@@ -6933,23 +6950,23 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -6957,7 +6974,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -6965,7 +6982,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -6973,7 +6990,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B237">
         <v>0</v>
@@ -6981,7 +6998,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B238">
         <v>1</v>
@@ -6989,7 +7006,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -6997,7 +7014,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B240">
         <v>0</v>
@@ -7005,7 +7022,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -7013,7 +7030,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -7021,7 +7038,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B243">
         <v>0</v>
@@ -7029,7 +7046,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B244">
         <v>0</v>
@@ -7037,7 +7054,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B245">
         <v>0</v>
@@ -7045,7 +7062,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -7053,7 +7070,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B247">
         <v>0</v>
@@ -7061,7 +7078,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -7069,7 +7086,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B249">
         <v>0</v>
@@ -7077,7 +7094,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B250">
         <v>0</v>
@@ -7085,7 +7102,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B251">
         <v>0</v>
@@ -7093,7 +7110,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B252">
         <v>0</v>
@@ -7101,7 +7118,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B253">
         <v>0</v>
@@ -7109,7 +7126,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -7117,7 +7134,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B255">
         <v>1</v>
@@ -7125,7 +7142,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B256">
         <v>0</v>
@@ -7133,7 +7150,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B257">
         <v>1</v>
@@ -7141,7 +7158,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B258">
         <v>0</v>
@@ -7149,15 +7166,15 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B260">
         <v>0</v>
